--- a/data/trans_camb/P37-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P37-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.926145710339274</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>24.20543965011436</v>
+        <v>24.20543965011435</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.6927437962191502</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.898916936074975</v>
+        <v>-3.055488259097609</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.15523669246263</v>
+        <v>-3.015888306714926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.65854942037242</v>
+        <v>18.69544234199737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.887072694648565</v>
+        <v>-5.861793604436857</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.873999823005517</v>
+        <v>-4.653186376375299</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.39043343953557</v>
+        <v>19.17273398840657</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.764856857246901</v>
+        <v>-2.718000384221004</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.108425650724294</v>
+        <v>-2.031216337480378</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>20.53310174327206</v>
+        <v>20.22319472616728</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.799565495363968</v>
+        <v>6.132736772428691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.53663677972907</v>
+        <v>6.472759849479901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.33279338856089</v>
+        <v>29.50915203089557</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.578998848471024</v>
+        <v>4.44228425966441</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.139700447780862</v>
+        <v>6.398375380688905</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.98347925344082</v>
+        <v>29.38896551590637</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.336857703954436</v>
+        <v>4.618376713904278</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.037142130930135</v>
+        <v>5.06796159166</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.82149329849518</v>
+        <v>27.52807669223146</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.07529168254933949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.967798649562371</v>
+        <v>1.96779864956237</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.05342668576149404</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1850470523926368</v>
+        <v>-0.188875938128283</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2028305869093618</v>
+        <v>-0.1936238866762551</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.158431130524298</v>
+        <v>1.134561569421209</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4059870571926195</v>
+        <v>-0.4113169823732112</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3267764407230507</v>
+        <v>-0.3172588491521764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.109554755753209</v>
+        <v>1.202347205041415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1934847027976959</v>
+        <v>-0.1940079064634584</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1464829541892427</v>
+        <v>-0.1439572358713582</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.346908660931912</v>
+        <v>1.35846530617782</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6243859909457161</v>
+        <v>0.5453545997280543</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5756500735508496</v>
+        <v>0.5903604472670535</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.576814988420266</v>
+        <v>2.691395695416265</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4861395519122214</v>
+        <v>0.4941966126665577</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6451800296527661</v>
+        <v>0.6382231014657856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.140319571736722</v>
+        <v>3.204743154604092</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.376854431565943</v>
+        <v>0.4005782351285077</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4579477605350521</v>
+        <v>0.4721786175582919</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.58017255847823</v>
+        <v>2.546908184584094</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.48119040120961</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21.45110317787186</v>
+        <v>21.45110317787187</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.537562838031202</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.680205717421594</v>
+        <v>-3.459037133379134</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.724240949285555</v>
+        <v>-7.320444340582675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.29693664486304</v>
+        <v>15.51778558549554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.473914070748358</v>
+        <v>-1.630676889260397</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.270077473766169</v>
+        <v>-1.885167940839547</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.94754984426647</v>
+        <v>18.61432752347173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4562460798812605</v>
+        <v>-0.3024069219824641</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.777781502217049</v>
+        <v>-3.303434314387649</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>19.06430683852424</v>
+        <v>18.61694376434111</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.045431555537355</v>
+        <v>8.376331385840421</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.639416538090003</v>
+        <v>3.419834567664695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27.14348284577681</v>
+        <v>27.28318329875503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.931688346440958</v>
+        <v>6.899396300849495</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.110309460927538</v>
+        <v>6.194239501380237</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>28.00831791350774</v>
+        <v>27.70495992206567</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.344104640566912</v>
+        <v>7.086071199882683</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.249619719383275</v>
+        <v>3.67054847262203</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>26.49749424481497</v>
+        <v>26.53428651863519</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2819016740921659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>3.347177362569265</v>
+        <v>3.347177362569264</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2945015264614781</v>
@@ -983,7 +983,7 @@
         <v>-0.01926487735179327</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.988657421689584</v>
+        <v>1.988657421689585</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1463433524834145</v>
+        <v>-0.1773003925067627</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4186213005642375</v>
+        <v>-0.3969953301443783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7716130576122012</v>
+        <v>0.7947814240924209</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1867298741651353</v>
+        <v>-0.2002474637797708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2603600358686358</v>
+        <v>-0.2317226031241776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.907227104331646</v>
+        <v>2.015317740474981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04377002554288197</v>
+        <v>-0.03104657522085682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2883062680324266</v>
+        <v>-0.2591364625049739</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.390591950038936</v>
+        <v>1.363816497164611</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7134408030071323</v>
+        <v>0.6378887578977291</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.204284870499042</v>
+        <v>0.2475970207873288</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.101967029963986</v>
+        <v>2.219746577766784</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.384677461671446</v>
+        <v>1.306157921718566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.169268318003309</v>
+        <v>1.185223495233328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.597823459953705</v>
+        <v>5.807084655671987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7456314431007428</v>
+        <v>0.7706036041576538</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3411097228101561</v>
+        <v>0.3723055801123319</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.826552702280781</v>
+        <v>2.816964801605953</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.721005161383128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19.10710900102547</v>
+        <v>19.10710900102546</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1944159994619235</v>
@@ -1083,7 +1083,7 @@
         <v>4.909885638390138</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.2788057342619</v>
+        <v>26.27880573426189</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.71184182278704</v>
@@ -1092,7 +1092,7 @@
         <v>4.767082690038535</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>21.15164550601153</v>
+        <v>21.15164550601154</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.056320091451943</v>
+        <v>0.7616773551178327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04471352057421703</v>
+        <v>0.2143078586208159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.70925310642917</v>
+        <v>14.34027582169252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.237868142477478</v>
+        <v>-6.24928020671617</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.995060044707791</v>
+        <v>-3.609268899758708</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.59799721926264</v>
+        <v>18.05012451880565</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1539916445752328</v>
+        <v>0.09914451250074867</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.023480074142562</v>
+        <v>0.8419730232700753</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.02528193955948</v>
+        <v>17.11998430873032</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.472189918149979</v>
+        <v>9.293085261387565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.734507384606399</v>
+        <v>9.310359837562061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.09827139603209</v>
+        <v>24.17163068631028</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.939631821882238</v>
+        <v>6.43743151746018</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.35766975142282</v>
+        <v>13.04044661460083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.77079914701849</v>
+        <v>33.84588179806588</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.406819781091087</v>
+        <v>7.469635276601437</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.714786378885815</v>
+        <v>8.352034206819935</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.37281842168801</v>
+        <v>25.32272353272201</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3780331957122177</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.529996521834591</v>
+        <v>1.52999652183459</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01545492421012202</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07176640024019029</v>
+        <v>0.03009138828289282</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.001427238408776631</v>
+        <v>0.006419760986798975</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9501680168418648</v>
+        <v>0.9651819020208063</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4375744705800563</v>
+        <v>-0.3998380590021278</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.200207555092259</v>
+        <v>-0.2277874065481408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.100466267941749</v>
+        <v>1.013007383595515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.010388369783924</v>
+        <v>0.005996592682330674</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06596281561299121</v>
+        <v>0.06154516060980398</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.177784894412467</v>
+        <v>1.162529659833673</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9173811659046527</v>
+        <v>0.8676952247486565</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8231008671790767</v>
+        <v>0.8671960731601805</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.305238492903579</v>
+        <v>2.313436929104492</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7111424679258812</v>
+        <v>0.7243815390831712</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.495886660369868</v>
+        <v>1.423319805982522</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.879149595810796</v>
+        <v>3.776733493355285</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6931284101402309</v>
+        <v>0.7029446165141088</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7957812028256309</v>
+        <v>0.7708453258928563</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.4458029577933</v>
+        <v>2.370121527679115</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.09655753593945382</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16.88815033194744</v>
+        <v>16.88815033194745</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5455884985621735</v>
+        <v>0.3145997866168828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.22517234175294</v>
+        <v>-2.36177955191219</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13.33949481531078</v>
+        <v>13.54161256622531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.189113723725699</v>
+        <v>-4.459146904189852</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.259719678273035</v>
+        <v>-4.421075096226643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.5087184906648</v>
+        <v>13.54706191137765</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.01707717486178</v>
+        <v>-0.8707844760454785</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.414900041044536</v>
+        <v>-2.268641995403557</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.48827126993822</v>
+        <v>14.45317927224318</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.68802482199991</v>
+        <v>6.514915334402302</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.785815791146467</v>
+        <v>3.796720470403722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.55875667701367</v>
+        <v>20.42378531045727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.793658205899908</v>
+        <v>2.665727975218496</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.809145515358057</v>
+        <v>2.818695876706403</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.73494648305472</v>
+        <v>20.81676321380877</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.774697741971986</v>
+        <v>3.934141403903598</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.101518940865297</v>
+        <v>2.27374649318366</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>19.59735203710212</v>
+        <v>19.31562410184139</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02502701584911175</v>
+        <v>0.01690768084356386</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1222056424938827</v>
+        <v>-0.1345171101618975</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7447849845318593</v>
+        <v>0.7534741212262898</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2919429234651943</v>
+        <v>-0.3003053080835753</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2845603745518028</v>
+        <v>-0.2948556172632431</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9000167530637763</v>
+        <v>0.9068883130731018</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05962287479780738</v>
+        <v>-0.05652551509535399</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1483062485172325</v>
+        <v>-0.1380276125015995</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8803168858316506</v>
+        <v>0.8904905430993352</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4414767374436917</v>
+        <v>0.4394810565684135</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2492008281288419</v>
+        <v>0.2532447897595064</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.371669113102515</v>
+        <v>1.367864186046397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2451450392908726</v>
+        <v>0.2300589771744374</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2493669097631328</v>
+        <v>0.2614384527085935</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.866395760925783</v>
+        <v>1.929431464896889</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2680761679143205</v>
+        <v>0.2783457190743316</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1515378325506955</v>
+        <v>0.1551532008809999</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.42289936042515</v>
+        <v>1.380140089745312</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.262572198423392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10.58681950294621</v>
+        <v>10.5868195029462</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.555244102441165</v>
@@ -1520,7 +1520,7 @@
         <v>3.366423913234887</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>16.86746982870515</v>
+        <v>16.86746982870514</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6446835179771557</v>
+        <v>-0.8412480263566714</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6822085609065258</v>
+        <v>-0.9432432876774928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.687448922450825</v>
+        <v>5.502498829694062</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8455125759165713</v>
+        <v>1.461400024021249</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.663372025979686</v>
+        <v>-2.006643790038592</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.26803943375473</v>
+        <v>17.02326930748274</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.740695099956127</v>
+        <v>1.503215701567029</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1893438302016093</v>
+        <v>0.4659555641317883</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.39463715831351</v>
+        <v>13.46185111220976</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.399939472572127</v>
+        <v>9.873535294507295</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.560837777916733</v>
+        <v>8.765049056841555</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.58448708383367</v>
+        <v>15.82445994390881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.542743831424758</v>
+        <v>9.835099462852506</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.693401587810414</v>
+        <v>6.40035271087623</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>25.50542020163227</v>
+        <v>25.4189856212119</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.333249040813406</v>
+        <v>8.090096015115652</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.494763931073612</v>
+        <v>6.722131635155332</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>19.75725870895065</v>
+        <v>19.99944026819859</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3014433397300104</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7486855540575468</v>
+        <v>0.748685554057546</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3914790506672599</v>
@@ -1625,7 +1625,7 @@
         <v>0.237550283976894</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.190245896254429</v>
+        <v>1.190245896254428</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04092031538638745</v>
+        <v>-0.05468964153040115</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04747199693855695</v>
+        <v>-0.05934338983642044</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3158956007891111</v>
+        <v>0.2871906190207091</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04083095965340751</v>
+        <v>0.08503889901746693</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1084460594846885</v>
+        <v>-0.1202273606740689</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.017620555521868</v>
+        <v>0.9915750144159253</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09858640234760743</v>
+        <v>0.09419749170045967</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01146834426664213</v>
+        <v>0.03052630785984423</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8215059093743219</v>
+        <v>0.8197690989476786</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8251199091288229</v>
+        <v>0.8697330888103286</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8410008403231016</v>
+        <v>0.7602957435187221</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.3710859822984</v>
+        <v>1.370594306592528</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7900871297055885</v>
+        <v>0.8278279463417978</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5495366748580884</v>
+        <v>0.5265345688137878</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.264973667598696</v>
+        <v>2.217958829313517</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6706626595368862</v>
+        <v>0.6621639198261468</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5171551368754876</v>
+        <v>0.552825813498567</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.592623001742799</v>
+        <v>1.65803925187091</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>1.873797775439697</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.9513367911535592</v>
+        <v>0.9513367911535598</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.155356617452428</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3423392522450153</v>
+        <v>0.3752050850707507</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.73029084264399</v>
+        <v>-1.704738074502582</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.472965046555849</v>
+        <v>-2.441911543384546</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.438826641272736</v>
+        <v>1.293422594610524</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.3270240747153092</v>
+        <v>-0.4976000252710367</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>18.59949650025877</v>
+        <v>18.72216789285666</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.867479143158462</v>
+        <v>2.096940971469444</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5745030688040689</v>
+        <v>-0.7697341961802013</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>13.78897250195809</v>
+        <v>13.6622162065481</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.322335630235917</v>
+        <v>9.022373536525718</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.534084652795641</v>
+        <v>5.992708519971757</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.424431494771976</v>
+        <v>5.146864562230554</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.605669594342451</v>
+        <v>8.762848538463309</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.006997767409212</v>
+        <v>6.891314376942126</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>26.61887072380065</v>
+        <v>26.55301618765577</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.029404251944065</v>
+        <v>8.26953521343494</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.817878681999657</v>
+        <v>5.59994486754131</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.09354128211164</v>
+        <v>21.18256333962868</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.4640850968703775</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2356183963209439</v>
+        <v>0.2356183963209441</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2321954904640806</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.04925898962032955</v>
+        <v>0.01680961329000273</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3540660122807549</v>
+        <v>-0.3389409551936001</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.481604646411628</v>
+        <v>-0.481223557735774</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.05757614559516007</v>
+        <v>0.04623161000762939</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.01826063773697963</v>
+        <v>-0.02105765393139605</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7808236454856419</v>
+        <v>0.7961330451767099</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09159052901523632</v>
+        <v>0.1049432451842838</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03562658930408706</v>
+        <v>-0.04058656940704577</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6730848535511975</v>
+        <v>0.6838577268100272</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.467036918192435</v>
+        <v>3.286194457999279</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.232851600949488</v>
+        <v>2.854909425472394</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.900916545512038</v>
+        <v>2.003221324889143</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4242428864391323</v>
+        <v>0.4200202905270629</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3319928111144134</v>
+        <v>0.3322261296704406</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.30702385630806</v>
+        <v>1.307054134069996</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4539408164949446</v>
+        <v>0.4591374898494875</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3265985293146013</v>
+        <v>0.3212022232709641</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.199626157808929</v>
+        <v>1.24518936546173</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.833576964352576</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17.10182674541845</v>
+        <v>17.10182674541844</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.383169935109711</v>
@@ -1939,7 +1939,7 @@
         <v>1.369582933429511</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>20.25734205010894</v>
+        <v>20.25734205010893</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.040474562311596</v>
@@ -1948,7 +1948,7 @@
         <v>1.601432445432077</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>18.7330963708363</v>
+        <v>18.73309637083632</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.865092494395876</v>
+        <v>1.909605383073436</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.033143634443265</v>
+        <v>0.01037983706541153</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.13765529256986</v>
+        <v>15.00585550381691</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4855404456722393</v>
+        <v>0.6044951793140374</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5570918432258379</v>
+        <v>-0.4815903340196552</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>18.32579525204241</v>
+        <v>18.45765804268526</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.627591271341456</v>
+        <v>1.862603402698515</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2977349430822855</v>
+        <v>0.3898265912721973</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>17.34722558562135</v>
+        <v>17.35410864347797</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.611722109190429</v>
+        <v>5.697284715649512</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.380931568168884</v>
+        <v>3.518177554091547</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19.03074818653693</v>
+        <v>19.144742931629</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.280245226748532</v>
+        <v>4.287154928457841</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.032044138708043</v>
+        <v>3.378452410554211</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.03045859216984</v>
+        <v>22.01713511139785</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.329272887121902</v>
+        <v>4.539697741865107</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.857363327176391</v>
+        <v>2.916151584191599</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.97425903101333</v>
+        <v>19.99751110610172</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.08637507644277569</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.277563720602297</v>
+        <v>1.277563720602296</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.20410510838886</v>
@@ -2053,7 +2053,7 @@
         <v>0.1075031335252637</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.257540751244299</v>
+        <v>1.2575407512443</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1254566143849691</v>
+        <v>0.1321771385022527</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.002453563122068731</v>
+        <v>8.83996156843524e-05</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.020878997741301</v>
+        <v>1.010606055086213</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03036321080536159</v>
+        <v>0.03553337833413302</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03152802159246528</v>
+        <v>-0.03092638976610472</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.088452128781234</v>
+        <v>1.093364768800301</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1080792527063371</v>
+        <v>0.1219914772450405</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.01976873427347127</v>
+        <v>0.02528448548651933</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.108898469890689</v>
+        <v>1.111095685898698</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4287156709487747</v>
+        <v>0.428560474128722</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2657787768446337</v>
+        <v>0.2667231744206084</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.474609098642999</v>
+        <v>1.477057772766631</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2881337629853345</v>
+        <v>0.2874617513635234</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2067132298975205</v>
+        <v>0.2252592218183405</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.494575737239662</v>
+        <v>1.487573269141985</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.304542218283887</v>
+        <v>0.3187627057330991</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2012502767874126</v>
+        <v>0.2053905892986698</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.400884133330688</v>
+        <v>1.4056576143212</v>
       </c>
     </row>
     <row r="46">
